--- a/medicine/Enfance/Fondation_Lucy_Lebon/Fondation_Lucy_Lebon.xlsx
+++ b/medicine/Enfance/Fondation_Lucy_Lebon/Fondation_Lucy_Lebon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fondation Lucy Lebon est une fondation française de droit privé dont le siège est situé à Montier-en-Der (La Porte du Der), en Haute-Marne. 
 Elle est agréée, pour l'ensemble de la région Grand Est[réf. nécessaire], en tant qu'Institut médico-éducatif, structure de soins et éducation spécialisée à domicile, rééducation et centre d'accueil familial  spécialisé. Elle reçoit aussi des personnes mineures dans le cadre de mesures d'assistance éducative ordonnées par les juges des enfants ou l'aide sociale à l'enfance[réf. nécessaire].
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par testament du 5 mars 1885, Madame Adrienne Robert veuve Lebon demande au Bureau de bienfaisance (ancêtre du CCAS) de Montier-en-Der d'employer les biens issus de sa succession en « œuvres et Fondation de bienfaisance en faveur des habitants pauvres de Montier-en-Der. (…) Dans la maison que j'ai fait construire sera établi un orphelinat pour les petites filles pauvres de la Fondation, placé sous le patronage de sainte Lucie ».
 Adrienne Robert veuve Lebon décède le 26 mars 1895.
@@ -523,7 +537,7 @@
 Le 1er septembre 1968, l'extension de la capacité d'accueil passe de 50 à 120 lits.
 La fondation accueille un jeune garçon en 1980 et cesse de ne recevoir que des jeunes filles.
 Depuis le décret du 30 octobre 1989, la Fondation est agréée en tant qu'Institut médico-éducatif, soins et éducation spécialisée à domicile, rééducation et centre d'accueil familial spécialisé. La fondation reçoit principalement deux types de public : des déficients intellectuels (internat et semi-internat ; Services de soins et d'éducation spécialisée à domicile (SESSAD) pour 15 jeunes de 0 à 20 ans ; un Centre d'accueil familial spécialisé) ; des jeunes gens souffrant de troubles du comportement
-En janvier 1994, de nouveaux statuts renomment la « Fondation Sainte-Lucie » en « Fondation Lucy Lebon », en souvenir de Lucy, la fille des époux Lebon, décédée à l'âge de 18 ans le 8 juillet 1854. Ces statuts sont validés par le ministère de l'Intérieur le 28 janvier 1994[1].
+En janvier 1994, de nouveaux statuts renomment la « Fondation Sainte-Lucie » en « Fondation Lucy Lebon », en souvenir de Lucy, la fille des époux Lebon, décédée à l'âge de 18 ans le 8 juillet 1854. Ces statuts sont validés par le ministère de l'Intérieur le 28 janvier 1994.
 </t>
         </is>
       </c>
@@ -552,7 +566,9 @@
           <t>Personnels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fondation est dirigée par un président (président du conseil d'administration), un directeur général et deux chefs de service.
 La fondation emploie un pédopsychiatre à tiers-temps (convention), deux psychologue à mi-temps (convention), 21 éducateurs spécialisés, un orthophoniste en tant que de besoin (convention), des rééducateurs et psychomotriciens.
@@ -587,7 +603,9 @@
           <t>Structures spécialisées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Centre d'accueil familial spécialisé (CAFS), d'une capacité de 13 places, est agréé pour recevoir des enfants et adolescents de 4 à 20 ans, déficients intellectuels, troubles de la conduite ou du comportement, polyhandicapés ou autistes.
 Le Service de suite a pour mission d'accompagner, de soutenir l'enfant ou l'adolescent dans son insertion sociale et professionnelle à sa sortie de l'établissement.
